--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961DBE20-E1DC-47A5-B23D-B15F45BA53E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386100F-169A-4B32-9827-1AB7E483BDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
     <t>Assessment text</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] inSCN2Ais classified as LP forAutosomaldominantSCN2A-relateddisorder. This variant is located in exon27,271 bp from[distance from donor oracceptor splice site/ branchpoint] of theSCN2A.The mechanism by which this variant impairs proteinfunction isgain-of-function(PMID: 32750235).There is published evidence((PMID:34850743,40263630)thatASO/RNAi/siRNA has already been developed and shown to work with availablefunctional evidence.In light of the current evidence and in accordance with theconsensus guidelines forassessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant isconsidered Eligible forexon skippingASO therapy.</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,9 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -402,7 +404,7 @@
     <col min="11" max="11" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +433,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,31 +444,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386100F-169A-4B32-9827-1AB7E483BDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E36639-E7AA-4D91-B84B-9AAA62A8473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,10 +76,10 @@
     <t>Eligible</t>
   </si>
   <si>
-    <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] inSCN2Ais classified as LP forAutosomaldominantSCN2A-relateddisorder. This variant is located in exon27,271 bp from[distance from donor oracceptor splice site/ branchpoint] of theSCN2A.The mechanism by which this variant impairs proteinfunction isgain-of-function(PMID: 32750235).There is published evidence((PMID:34850743,40263630)thatASO/RNAi/siRNA has already been developed and shown to work with availablefunctional evidence.In light of the current evidence and in accordance with theconsensus guidelines forassessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant isconsidered Eligible forexon skippingASO therapy.</t>
-  </si>
-  <si>
     <t>Eligibility</t>
+  </si>
+  <si>
+    <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon27, 271 bp from [distance from donor or acceptor splice site/ branchpoint] of the SCN2A. The mechanism by which this variant impairs protein function is gain-of-function(PMID: 32750235). There is published evidence(PMID:34850743,40263630) that ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Eligible for knockdown ASO therapy.</t>
   </si>
 </sst>
 </file>
@@ -389,8 +389,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>9</v>
@@ -468,7 +468,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E36639-E7AA-4D91-B84B-9AAA62A8473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C8657-C4A1-4FC3-96EC-98E3D00809E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -79,7 +79,44 @@
     <t>Eligibility</t>
   </si>
   <si>
-    <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon27, 271 bp from [distance from donor or acceptor splice site/ branchpoint] of the SCN2A. The mechanism by which this variant impairs protein function is gain-of-function(PMID: 32750235). There is published evidence(PMID:34850743,40263630) that ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Eligible for knockdown ASO therapy.</t>
+    <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon27, 271 bp from [distance from donor or acceptor splice site/ branchpoint] of the SCN2A. The mechanism by which this variant impairs protein function is gain-of-function (PMID: 32750235). There is published evidence (PMID:34850743,40263630) that ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Eligible for knockdown ASO therapy.</t>
+  </si>
+  <si>
+    <t>DYSF</t>
+  </si>
+  <si>
+    <t>NM_003494.4</t>
+  </si>
+  <si>
+    <t>c.237-159_342+1237del</t>
+  </si>
+  <si>
+    <t>p.Phe80ProfsTer36</t>
+  </si>
+  <si>
+    <t>Exon skipping</t>
+  </si>
+  <si>
+    <t>Not eligible</t>
+  </si>
+  <si>
+    <t>SCN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NM_001165963.4c.4465C&gt;A (p.Gln1489Lys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.4465C&gt;A </t>
+  </si>
+  <si>
+    <t>p.Gln1489Lys</t>
+  </si>
+  <si>
+    <t>Unable to assess</t>
+  </si>
+  <si>
+    <t>Pathomechanism unknown</t>
   </si>
 </sst>
 </file>
@@ -153,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -169,6 +206,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,20 +427,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
     <col min="11" max="11" width="101" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,6 +509,58 @@
       </c>
       <c r="K2" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883C8657-C4A1-4FC3-96EC-98E3D00809E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E17E51D-22A3-4DAE-A250-5277A129B03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +65,15 @@
     <t>Approach</t>
   </si>
   <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
     <t>Assessment text</t>
   </si>
   <si>
+    <t>Note to team</t>
+  </si>
+  <si>
     <t>SCN2A</t>
   </si>
   <si>
@@ -76,54 +98,196 @@
     <t>Eligible</t>
   </si>
   <si>
-    <t>Eligibility</t>
-  </si>
-  <si>
-    <t>The variant [NM_001040142.2:c.5636T&gt;C (p.Met1879Thr)] in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon27, 271 bp from [distance from donor or acceptor splice site/ branchpoint] of the SCN2A. The mechanism by which this variant impairs protein function is gain-of-function (PMID: 32750235). There is published evidence (PMID:34850743,40263630) that ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Eligible for knockdown ASO therapy.</t>
+    <t>The variant NM_001040142.2:c.5636T&gt;C (p.Met1879Thr) in SCN2A gene is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon27. The mechanism by which this variant impairs protein function is gain-of-function (PMID: 32750235). There is published evidence (PMID:34850743,40263630) that ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Eligible for knockdown ASO therapy.</t>
   </si>
   <si>
     <t>DYSF</t>
   </si>
   <si>
+    <t>NM_001130987.2</t>
+  </si>
+  <si>
+    <t>c.1276+5G&gt;A</t>
+  </si>
+  <si>
+    <t>p.(Met394SerfsTer27)/p.(Val385TrpfsTer5)</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/RCV000726343/</t>
+  </si>
+  <si>
+    <t>Splice Correction</t>
+  </si>
+  <si>
+    <t>Not eligible</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.1276+5G&gt;A in DYSF gene is classified as LP/P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in intron 12, 5bp from donor splice site of the DYSF gene. There is published evidence [PMID 36983702] of the impact of this variant on splicing that leads to weakening of the canonical splice sites. In light of the current evidence and in accordance with th e consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for splice correction ASO therapy. This variant was assessed on 9/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.237-159_342+1237del</t>
+  </si>
+  <si>
+    <t>Exon 4 deletion</t>
+  </si>
+  <si>
+    <t>p.(Phe80ProfsTer36)</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/4056140/</t>
+  </si>
+  <si>
+    <t>Exon skipping</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.237-159_342+1237del is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. It is an intragenic deletion with intronic breakends that encompasses exon 4 of the DYSF gene. RNAseq analysis showed that this variant results in skipping of exon 4, which is expected to lead to a frameshift, premature truncation (p.Phe80ProfsTer36) (PMID: 36983702). Exon 4 is out of- frame. Skipping exon 3 (adjacent out-of-frame) can potentially restore reading frame. Skipping exon 3 along with the deleted exon 4 will result in the loss of 9.5% of protein length, including a part of the C2-1 (C2A) domain. the C2A domain is a functionally proven important domain which is crucial for dysferlin to function correctly in plasma membrane repair (PMID: 351567061). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 3/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>SCN8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NM_001330260.2</t>
+  </si>
+  <si>
+    <t>c.5615G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg1872Gln</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/RCV003992248.3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variant NM_001330260.2(SCN8A):c.5615G&gt;A (p.Arg1872Gln) in SCN8A gene is classified as P for SCN8A-related Epilepsy and/or Neurodevelopmental Disorders. There is published evidence [PMID: 26900580] that the variant causes gain of function effect on protein function. There is published evidence [PMID: 31943325, 34412058, 38113311] that an ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered eligible for RNA knockdown. This variant was assessed on 20/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.4780T&gt;A </t>
+  </si>
+  <si>
+    <t>p.Trp1594Arg</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/RCV005430853/</t>
+  </si>
+  <si>
+    <t>Unable to assess</t>
+  </si>
+  <si>
+    <t>The variant NM_001040142.2:c.4780T&gt;A (p.Trp1594Arg) in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon 26.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA knockdown ASO therapy. This variant was assessed on 13/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.5317G&gt;A </t>
+  </si>
+  <si>
+    <t>p.Ala1773Thr</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/207024/</t>
+  </si>
+  <si>
+    <t>The variant NM_001040142.2:c.5317G&gt;A (p.Ala1773Thr) in SCN2A gene is classified as P for Autosomal dominant SCN2A-related disorder. This variant is located in exon 27 of the SCN2A. Exon 27 is the last coding exon and is out of-frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. This variant was assessed on 09/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
     <t>NM_003494.4</t>
   </si>
   <si>
-    <t>c.237-159_342+1237del</t>
-  </si>
-  <si>
-    <t>p.Phe80ProfsTer36</t>
-  </si>
-  <si>
-    <t>Exon skipping</t>
-  </si>
-  <si>
-    <t>Not eligible</t>
+    <t>c.533del</t>
+  </si>
+  <si>
+    <t>p.Gly178Glufs*49</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/RCV005600403/</t>
+  </si>
+  <si>
+    <t>The variant NM_003494.4(DYSF):c.533del p.(Gly178Glufs*49) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease.  This variant is located in exon 6 of the DYSF transcript (NM_003494.4). Exon 6 is out of frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 03/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>SCN1A</t>
   </si>
   <si>
-    <t xml:space="preserve">
-NM_001165963.4c.4465C&gt;A (p.Gln1489Lys)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.4465C&gt;A </t>
-  </si>
-  <si>
-    <t>p.Gln1489Lys</t>
-  </si>
-  <si>
-    <t>Unable to assess</t>
-  </si>
-  <si>
-    <t>Pathomechanism unknown</t>
+    <t>NM_001165963.4</t>
+  </si>
+  <si>
+    <t>c.2792G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg931His</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/189869/</t>
+  </si>
+  <si>
+    <t>Upregulation</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.2792G&gt;A (p.Arg931His) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 18.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA upregulation ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.1709G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Ser570Asn</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/374331/</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.1709G&gt;A (p.Ser570Asn) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 14.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA RNA upregulation ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.3629C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Thr1210Met</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/658067/</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.3629C&gt;T (p.Thr1210Met) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 21.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA knockdown ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.4916G&gt;C</t>
+  </si>
+  <si>
+    <t>p.Arg1639Pro</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/206852/</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.4916G&gt;C (p.Arg1639Pro) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 29.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA RNA upregulation ASO therapy. This variant was assessed on 04/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.4916G&gt;C (p.Arg1639Pro) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. This variant is located in exon 29. Exon 29 is the last coding exon AND codes for 19.5% of protein length. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 26/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.4873C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Arg1625Ter</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/94330/</t>
+  </si>
+  <si>
+    <t>Unlikely eligible</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.4873C&gt;T (p.Arg1625Ter) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 43 of the DYSF gene. Exon 43 is in-frame AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 43 includes a part of the sixth C2 domain (C2F domain). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Unlikely Eligible for exon skipping ASO therapy. This variant was assessed on 15/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,6 +311,26 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,15 +371,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,11 +388,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,24 +616,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
     <col min="8" max="8" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,109 +653,478 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{C1006092-86D3-4DE0-9EDF-E3FCE92C52AC}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{CDCCBF6F-26DB-4E4A-85A1-E761F540A1CB}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{A8ACA7AA-E927-4380-8481-B812DE94E9BD}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{518A28A4-1EB4-4A34-AE35-B59A15215D4C}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{8A78DCE2-CDBB-4DAC-82F8-93D1FE4E26D3}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{CA797F6E-3931-409A-A5D2-C9E0385A45CA}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{3D472DD2-9813-4D61-8593-168F045744A2}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{870F90DB-CE79-4110-98CF-F082CA2455A1}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{B0F8324C-A0F4-417A-AC5F-B7428625EB58}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{59C8867E-2739-4DF1-88FB-E243D0E514D6}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{7BE481F1-52CB-49AF-99BE-E102937EAE45}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{C156B771-31BA-4259-BE6A-9FD38085C9E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E17E51D-22A3-4DAE-A250-5277A129B03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56405DE-5D19-4FEE-8A2F-B7C817BD21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56405DE-5D19-4FEE-8A2F-B7C817BD21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C4FDD5-75B1-460D-B513-0A7538E97E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -140,7 +140,7 @@
     <t>Exon skipping</t>
   </si>
   <si>
-    <t>The variant NM_001130987.2(DYSF):c.237-159_342+1237del is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. It is an intragenic deletion with intronic breakends that encompasses exon 4 of the DYSF gene. RNAseq analysis showed that this variant results in skipping of exon 4, which is expected to lead to a frameshift, premature truncation (p.Phe80ProfsTer36) (PMID: 36983702). Exon 4 is out of- frame. Skipping exon 3 (adjacent out-of-frame) can potentially restore reading frame. Skipping exon 3 along with the deleted exon 4 will result in the loss of 9.5% of protein length, including a part of the C2-1 (C2A) domain. the C2A domain is a functionally proven important domain which is crucial for dysferlin to function correctly in plasma membrane repair (PMID: 351567061). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 3/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001130987.2(DYSF):c.237-159_342+1237del is classified as P for Autosomal recessive Dysferlinopathies, which includes a spectrum of muscle disease. It is an intragenic deletion with intronic breakends that encompasses exon 4 of the DYSF gene. RNAseq analysis showed that this variant results in skipping of exon 4, which is expected to lead to a frameshift, premature truncation (p.Phe80ProfsTer36) (PMID: 36983702). Exon 4 is out of- frame. Skipping exon 3 (adjacent out-of-frame) can potentially restore the reading frame. Skipping exon 3 along with the deleted exon 4 will result in the loss of 9.5% of protein length, including a part of the C2-1 (C2A) domain. The C2A domain is a functionally proven important domain which is crucial for dysferlin to function correctly in plasma membrane repair (PMID: 351567061). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 3/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>SCN8A</t>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">Eligible </t>
   </si>
   <si>
-    <t xml:space="preserve">The variant NM_001330260.2(SCN8A):c.5615G&gt;A (p.Arg1872Gln) in SCN8A gene is classified as P for SCN8A-related Epilepsy and/or Neurodevelopmental Disorders. There is published evidence [PMID: 26900580] that the variant causes gain of function effect on protein function. There is published evidence [PMID: 31943325, 34412058, 38113311] that an ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered eligible for RNA knockdown. This variant was assessed on 20/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative
+    <t xml:space="preserve">The variant NM_001330260.2(SCN8A):c.5615G&gt;A (p.Arg1872Gln) in SCN8A gene is classified as P for SCN8A-related Epilepsy and/or Neurodevelopmental Disorders. There is published evidence [PMID: 26900580] that the variant causes a gain-of-function effect on protein function. There is published evidence [PMID: 31943325, 34412058, 38113311] that an ASO/RNAi/siRNA has already been developed and shown to work with available functional evidence. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered eligible for RNA knockdown. This variant was assessed on 20/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative
 </t>
   </si>
   <si>
@@ -178,7 +178,7 @@
     <t>Unable to assess</t>
   </si>
   <si>
-    <t>The variant NM_001040142.2:c.4780T&gt;A (p.Trp1594Arg) in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon 26.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA knockdown ASO therapy. This variant was assessed on 13/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001040142.2:(SCN2A):c.4780T&gt;A (p.Trp1594Arg) in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon 26.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 13/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t xml:space="preserve">c.5317G&gt;A </t>
@@ -223,10 +223,7 @@
     <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/189869/</t>
   </si>
   <si>
-    <t>Upregulation</t>
-  </si>
-  <si>
-    <t>The variant NM_001165963.4(SCN1A):c.2792G&gt;A (p.Arg931His) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 18.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA upregulation ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001165963.4(SCN1A):c.2792G&gt;A (p.Arg931His) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 18.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>c.1709G&gt;A</t>
@@ -238,7 +235,7 @@
     <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/374331/</t>
   </si>
   <si>
-    <t>The variant NM_001165963.4(SCN1A):c.1709G&gt;A (p.Ser570Asn) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 14.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA RNA upregulation ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001165963.4(SCN1A):c.1709G&gt;A (p.Ser570Asn) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 14.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>c.3629C&gt;T</t>
@@ -250,7 +247,7 @@
     <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/658067/</t>
   </si>
   <si>
-    <t>The variant NM_001165963.4(SCN1A):c.3629C&gt;T (p.Thr1210Met) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 21.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA knockdown ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001165963.4(SCN1A):c.3629C&gt;T (p.Thr1210Met) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 21.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>c.4916G&gt;C</t>
@@ -262,7 +259,7 @@
     <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/206852/</t>
   </si>
   <si>
-    <t>The variant NM_001165963.4(SCN1A):c.4916G&gt;C (p.Arg1639Pro) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 29.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for RNA RNA upregulation ASO therapy. This variant was assessed on 04/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    <t>The variant NM_001165963.4(SCN1A):c.4916G&gt;C (p.Arg1639Pro) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 29.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 04/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
   </si>
   <si>
     <t>The variant NM_001165963.4(SCN1A):c.4916G&gt;C (p.Arg1639Pro) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. This variant is located in exon 29. Exon 29 is the last coding exon AND codes for 19.5% of protein length. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on 26/09/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
@@ -281,13 +278,261 @@
   </si>
   <si>
     <t>The variant NM_001130987.2(DYSF):c.4873C&gt;T (p.Arg1625Ter) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 43 of the DYSF gene. Exon 43 is in-frame AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 43 includes a part of the sixth C2 domain (C2F domain). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Unlikely Eligible for exon skipping ASO therapy. This variant was assessed on 15/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>NM_021007.3</t>
+  </si>
+  <si>
+    <t>c.2558G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Arg853Gln</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/194555/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not eligible </t>
+  </si>
+  <si>
+    <t>The variant NM_021007.3(SCN2A):c.2558G&gt;A p.(p.Arg853Gln) in SCN2A gene is classified as P for Autosomal dominant SCN2A-related disorder). The mechanism by which this variant impairs protein function is loss-of-function (PMID: 35637276, PMID: 34287911), although mixed gain/loss of function variant has been suggested (https://aesnet.org/abstractslisting/individualized-antisense-oligonucleotide-for-two-patients-with-developmental-epileptic-encephalopathy-due-to-nano-rare-causal-scn2a-variants-same-gene-different-treatment). It is located in exon 15.Exon 15 is in frame AND  codes &lt;5% of the protein length. The variant is located in the S4 segment of domain II which acts as a voltage sensor and is crucial for channel function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. This variant was assessed on DATE using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>Note to team: please review evidence of pathogenicity, in relation to N-lorem poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variant NM_021007.3(SCN2A):c.2558G&gt;A p.(p.Arg853Gln) in SCN2A gene is classified as P for Autosomal dominant SCN2A-related disorder). It is located in exon 15.  The mechanism by which this variant impairs protein function is loss-of-function (PMID: 35637276, PMID: 34287911), although mixed gain/loss of function variant has been suggested (https://aesnet.org/abstractslisting/individualized-antisense-oligonucleotide-for-two-patients-with-developmental-epileptic-encephalopathy-due-to-nano-rare-causal-scn2a-variants-same-gene-different-treatment). There is published evidence [(https://aesnet.org/abstractslisting/individualized-antisense-oligonucleotide-for-two-patients-with-developmental-epileptic-encephalopathy-due-to-nano-rare-causal-scn2a-variants-same-gene-different-treatment] and (https://clinicaltrials.gov/study/NCT06314490) that an ASO/RNAi/siRNA is under development and shown to work with available functional evidence </t>
+  </si>
+  <si>
+    <t>Note to team: please review evidence of pathogenicity, in relation to N-lorem poster, also therapy is under development, it seems to be knockdown from the clinical trial entry</t>
+  </si>
+  <si>
+    <t>CAPN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NM_000070.3</t>
+  </si>
+  <si>
+    <t>c.2105C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Ala702Val</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/283099/</t>
+  </si>
+  <si>
+    <t>The variant NM_000070.3(CAPN3):c.2105C&gt;T (p.Ala702Val) in CAPN3 gene is classified as P for CAPN3-related autosomal recessive limb-girdle muscular dystrophy (Calpainopathy). This variant is located in exon 19 of CAPN3. Exon19 is out of-frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. This variant was assessed on 15/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.4465C&gt;A</t>
+  </si>
+  <si>
+    <t>p.Gln1489Lys</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/12893/</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.4465C&gt;A (p.Gln1489Lys) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 26.  The published evidence suggest that the variant pathomechanism is mixed gain-of-function/loss-of-function (PMIDs: 18621678, 18632931). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 04/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.4465C&gt;A (p.Gln1489Lys) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 26. Exon 26 is in frame  AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 26 includes part of the cytoplasmic linker between domains III and IV, which is critical for fast inactivation. This variant resides within a Pathogenic Enriched Region that is defined as a mutational hotspot by the ClinGen Epilepsy Sodium Channel VCEP. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT eligible for exon skipping ASO therapy. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function. This variant was assessed on 04/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.3167G&gt;C</t>
+  </si>
+  <si>
+    <t>p.Arg1056Pro</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/2912979</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.3167G&gt;C (p.Arg1056Pro) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 29 of the DYSF gene. Exon 29 is out of-frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.5815_5816del</t>
+  </si>
+  <si>
+    <t>p.Ser1939Glnfs*14</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/94344</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.5815_5816del (p.Ser1939fs) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 51 of the DYSF gene. Exon 51 is out of-frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. This variant was assessed on 06/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.268C&gt;T </t>
+  </si>
+  <si>
+    <t>p.Arg90Ter</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/197217</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.268C&gt;T (p.Arg90Ter) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 4 of the DYSF gene. Exon 4 is out of-frame. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. This variant was assessed on 15/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NM_001130987.2</t>
+  </si>
+  <si>
+    <t>c.3859dup</t>
+  </si>
+  <si>
+    <t>p.Glu1287Glyfs*7</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/646166</t>
+  </si>
+  <si>
+    <t>The variant NM_001130987.2(DYSF):c.3859dup (p.Glu1287Glyfs*7) in DYSF gene is classified as P for Autosomal recessive Dysferlinopathies which includes a spectrum of muscle disease. This variant is located in exon 34 of the DYSF gene. Exon 34 is in-frame AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 34 includes a part of the fourth C2 domain (C2D domain). It has been suggested that exon 34 skipping might be pathogenic such as c.3843+2T&gt;A (PMID: 25312915). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered Unlikely Eligible for exon skipping ASO therapy. This variant was assessed on 01/08/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.2303C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Pro768Leu</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/189929</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.2303C&gt;T (p.Pro768Leu) in SCN1A gene is classified as P/LP for Autosomal dominant SCN1A-related disorder. This variant is located in exon 16.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 17/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.4782G&gt;T</t>
+  </si>
+  <si>
+    <t>p.Trp1594Cys</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/3906896</t>
+  </si>
+  <si>
+    <t>The variant NM_021007.3(SCN2A):c.4782G&gt;T p.(Trp1594Cys) in SCN2A is classified as LP for Autosomal dominant SCN2A-related disorder. This variant is located in exon 26.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 16/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>c.2657T&gt;C</t>
+  </si>
+  <si>
+    <t>p.Leu886Ser</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/206972</t>
+  </si>
+  <si>
+    <t>The variant NM_001040142.2(SCN2A) c.2657T&gt;C (p.Leu886Ser) in SCN2A is classified as P/LP/VUS for Autosomal dominant SCN2A-related disorder. This variant is located in exon 16. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 18/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">The variant NM_001040142.2(SCN2A) c.2657T&gt;C (p.Leu886Ser) in SCN2A is classified as P/LP/VUS for Autosomal dominant SCN2A-related disorder. This variant is located in exon 16. Exon 16 is in-frame AND codes for ≤10% of the protein. Exon skipping does not create a stop codon but Exon 16 includes the extracellular loop between the S5 and S6 transmembrane segments of repeat II and a part of the S4, as well as all of the S5 of the transmembrane segments of repeat II, which are  This region is critical for channel function, with different parts contributing to voltage sensing, pore formation, and inactivation.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> This variant was assessed on 18/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+    </r>
+  </si>
+  <si>
+    <t>c.1094C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Thr365Met</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/2435687/</t>
+  </si>
+  <si>
+    <t>The variant NM_001040142.2(SCN2A):c.1094C&gt;T (p.Thr365Met) in SCN2A is classified as P/LP/VUS for Autosomal dominant SCN2A-related disorder. This variant is located in exon 9.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 09/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>SCN3A</t>
+  </si>
+  <si>
+    <t>NM_006922.4</t>
+  </si>
+  <si>
+    <t>c.585_586del</t>
+  </si>
+  <si>
+    <t>p.Phe195LeufsTer54</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/1365761</t>
+  </si>
+  <si>
+    <t>The variant NM_006922.4(SCN3A):c.585_586del (p.Phe195LeufsTer54) in SCN3A is classified as P for Autosomal dominant SCN3A-related disorder. This variant is located in exon 6. Exon 6 is in-frame AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 6 includes includes a part of the cytoplasmic loop between repeats I and II, which is critical for channel function and is particularly important for Modulation of channel gating and interacting with other proteins.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function. This variant was assessed on 15/07/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN3A has mutually exclusive alternative exons for exon 6, and a variant including exon 6N is expressed in the fetal brain, while another including exon 6A is present in the adult brain, not eligible vs unlikely eligible, depends on protein function </t>
+  </si>
+  <si>
+    <t>NM_001330260.2</t>
+  </si>
+  <si>
+    <t>c.3953A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Asn1318Ser</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/694309</t>
+  </si>
+  <si>
+    <t>The variant NM_001330260.2(SCN8A):c.3953A&gt;G (p.Asn1318Ser) in SCN8A is classified as P/LP for Autosomal dominant SCN8A-related disorder. This variant is located in exon 22.  There is no published evidence, at present, to determine the pathomechanism of the variant on protein function.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, it is not possible to assess this variant for ASO therapy. This variant was assessed on 09/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>The variant NM_001330260.2(SCN8A):c.3953A&gt;G (p.Asn1318Ser) in SCN8A is classified as P/LP for Autosomal dominant SCN8A-related disorder. This variant is located in exon 22.  Exon 22 is in-frame AND codes for ≤5% of the protein. Exon skipping does not create a stop codon but Exon 22 includes a part of the linker regions between the S4 and S5 segments and between S5 and S6 segments in the third transmembrane domain as well as segment 5  in the third transmembrane domain, which is critical for channel function (PMID: 31672125).  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function. This variant was assessed on 14/06/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.2792G&gt;A (p.Arg931His) in SCN1A gene is classified as P for Autosomal dominant SCN1A-related disorder. This variant is located in exon 18. Exon 18 is in-frame AND codes for ≤10% of the protein. Exon skipping does not create a stop codon but Exon 16 includes a part of the S5 segment of intracellular DII-DIII linker region, which is critical for channel function and is particularly important for the "fast inactivation" of the channel.  In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered NOT Eligible for exon skipping ASO therapy. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function. This variant was assessed on 16/10/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t>The variant NM_001165963.4(SCN1A):c.1709G&gt;A (p.Ser570Asn) in SCN1A gene is classified as LP/VUS for Autosomal dominant SCN1A-related disorder. This variant is located in exon 14. Exon 14 is in-frame AND codes for ≤10% of the protein. Exon skipping does not create a stop codon but Exon 14 includes a part of the cytoplasmic loop between repeats I and II, which is critical for channel function and is particularly important for the channel's proper localization at the axon initial segment, which is essential for generating action potentials. A splice sit variant (IVS14+3A&gt;T) resulting in exon 14 skipping (confirmed on RT-PCR testing) with loss of protein function as been reported (PMID: 23821540). In light of the current evidence and in accordance with the consensus guidelines for assessing eligibility of pathogenic DNA variants for antisense oligonucleotide treatments, this variant is considered not Eligible for exon skipping ASO therapy. There is no published evidence, at present, to determine the pathomechanism of the variant on protein function. Therefore, this assessment should be interpreted with caution as further studies are required to determine the pathomechanism of the variant on protein function. This variant was assessed on 16/10/2025 using version 1 of the ASO eligibility guidelines established by the N=1 Collaborative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not eligible vs unlikely eligible, depends on protein function </t>
+  </si>
+  <si>
+    <t>Date assessment</t>
+  </si>
+  <si>
+    <t>Pathomechanism</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Splicing effect?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -332,6 +577,36 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -375,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,9 +669,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,515 +892,1239 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="101" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="10" width="27.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{C1006092-86D3-4DE0-9EDF-E3FCE92C52AC}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{CDCCBF6F-26DB-4E4A-85A1-E761F540A1CB}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{A8ACA7AA-E927-4380-8481-B812DE94E9BD}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{518A28A4-1EB4-4A34-AE35-B59A15215D4C}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{8A78DCE2-CDBB-4DAC-82F8-93D1FE4E26D3}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{CA797F6E-3931-409A-A5D2-C9E0385A45CA}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{3D472DD2-9813-4D61-8593-168F045744A2}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{870F90DB-CE79-4110-98CF-F082CA2455A1}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{B0F8324C-A0F4-417A-AC5F-B7428625EB58}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{59C8867E-2739-4DF1-88FB-E243D0E514D6}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{7BE481F1-52CB-49AF-99BE-E102937EAE45}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{C156B771-31BA-4259-BE6A-9FD38085C9E2}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{C1006092-86D3-4DE0-9EDF-E3FCE92C52AC}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{CDCCBF6F-26DB-4E4A-85A1-E761F540A1CB}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{A8ACA7AA-E927-4380-8481-B812DE94E9BD}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{518A28A4-1EB4-4A34-AE35-B59A15215D4C}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{8A78DCE2-CDBB-4DAC-82F8-93D1FE4E26D3}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{CA797F6E-3931-409A-A5D2-C9E0385A45CA}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{3D472DD2-9813-4D61-8593-168F045744A2}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{870F90DB-CE79-4110-98CF-F082CA2455A1}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{B0F8324C-A0F4-417A-AC5F-B7428625EB58}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{59C8867E-2739-4DF1-88FB-E243D0E514D6}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{01C59E22-4B3F-46EE-B006-72004A41534F}"/>
+    <hyperlink ref="H16" r:id="rId13" xr:uid="{91E3478C-8684-46B9-A70C-CCFBAF505A9A}"/>
+    <hyperlink ref="H12" r:id="rId14" xr:uid="{7BE481F1-52CB-49AF-99BE-E102937EAE45}"/>
+    <hyperlink ref="H13" r:id="rId15" xr:uid="{C156B771-31BA-4259-BE6A-9FD38085C9E2}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{3A44307F-E4EA-4582-9D86-591E22D3FED8}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{625B5970-BE2F-4098-B2C6-F5257D3B276A}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{39EA9394-84B4-48EE-A4A5-5B2A27487F1E}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{ACA86AD3-AB8E-429D-BEFD-97261DF5DEF8}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{5A6ADC76-1DE6-4E16-9314-3598FDCDDC3B}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{B2407E27-2659-4E7F-8083-46711BF4DA2F}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{C5664AC5-FBE8-408B-B060-0D0E837892A6}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{AED371A5-6D82-4A4F-8A55-C781A7D64BF7}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{6D30EE5E-1DA3-4E21-98A1-6BB1BBAEFCCE}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{38E54746-DA06-4954-A00F-894538079CB9}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{047AE4F1-C757-4DAE-88A6-9E679366BA12}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{0FF40E8A-1222-4865-A19F-752BFEE6924E}"/>
+    <hyperlink ref="H30" r:id="rId28" xr:uid="{ACCE6F05-99B8-4B80-AEBC-04D9B44AF8FF}"/>
+    <hyperlink ref="H31" r:id="rId29" xr:uid="{CB620D01-BC60-40C0-90FF-807F9CFCE210}"/>
+    <hyperlink ref="H29" r:id="rId30" xr:uid="{9A97904D-1405-4421-ADB6-7E13BD1199DA}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{264B27B9-F9A7-4CB0-BCE1-83757EEA81F8}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{BDFE1C03-4318-43E7-B30A-C00A69B48C73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C4FDD5-75B1-460D-B513-0A7538E97E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45229B-6458-424D-A902-CA206AFA6497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Splicing effect?</t>
+  </si>
+  <si>
+    <t>Publication</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -673,6 +676,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -892,10 +898,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -907,11 +913,11 @@
     <col min="8" max="10" width="27.7265625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="24.453125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="101" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,14 +960,17 @@
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -993,11 +1002,12 @@
       <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1028,11 +1038,11 @@
       <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1066,11 +1076,11 @@
       <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1101,11 +1111,11 @@
       <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1135,11 +1145,11 @@
       <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1170,11 +1180,11 @@
       <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1205,11 +1215,11 @@
       <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1237,11 +1247,11 @@
       <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1269,11 +1279,11 @@
       <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1301,11 +1311,11 @@
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="P11" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1333,11 +1343,11 @@
       <c r="N12" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1368,11 +1378,11 @@
       <c r="N13" t="s">
         <v>27</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1403,11 +1413,11 @@
       <c r="N14" t="s">
         <v>78</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1438,14 +1448,14 @@
       <c r="N15" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1478,14 +1488,15 @@
       <c r="N16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1516,11 +1527,11 @@
       <c r="N17" t="s">
         <v>27</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1548,11 +1559,11 @@
       <c r="N18" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1583,11 +1594,11 @@
       <c r="N19" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="P19" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1618,11 +1629,11 @@
       <c r="N20" t="s">
         <v>84</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1653,11 +1664,11 @@
       <c r="N21" t="s">
         <v>84</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1688,11 +1699,11 @@
       <c r="N22" t="s">
         <v>84</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1723,11 +1734,11 @@
       <c r="N23" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="P23" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1755,11 +1766,11 @@
       <c r="N24" t="s">
         <v>45</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1787,11 +1798,11 @@
       <c r="N25" t="s">
         <v>45</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1819,11 +1830,11 @@
       <c r="N26" t="s">
         <v>45</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1854,11 +1865,11 @@
       <c r="N27" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="P27" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1886,11 +1897,11 @@
       <c r="N28" t="s">
         <v>45</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1921,14 +1932,14 @@
       <c r="N29" t="s">
         <v>78</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="P29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="Q29" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1956,11 +1967,11 @@
       <c r="N30" t="s">
         <v>45</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1991,11 +2002,11 @@
       <c r="N31" t="s">
         <v>84</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2026,11 +2037,11 @@
       <c r="N32" t="s">
         <v>84</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2061,31 +2072,31 @@
       <c r="N33" t="s">
         <v>84</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>148</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>

--- a/assessed_variants.xlsx
+++ b/assessed_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45229B-6458-424D-A902-CA206AFA6497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BCB495-8CC5-46B3-9CAB-710B4D7672C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -530,12 +530,15 @@
   <si>
     <t>Publication</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -610,6 +613,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -653,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,6 +694,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -974,7 +991,9 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -991,8 +1010,12 @@
         <v>16</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1025,9 @@
       <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>20</v>
       </c>
